--- a/Running projects/Meezan Bank Head Office/001 Variation for Floor standing unit (rec on 30 May 25).xlsx
+++ b/Running projects/Meezan Bank Head Office/001 Variation for Floor standing unit (rec on 30 May 25).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F4465-3D39-41FD-A75B-DBE28385E0C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714689F-B15A-47B4-8B9A-2927DB250FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$29:$29</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>S. #</t>
   </si>
@@ -93,7 +93,13 @@
     <t>Total Amount after discount Rs</t>
   </si>
   <si>
-    <t>Rec</t>
+    <t>Less 4% withholding tax</t>
+  </si>
+  <si>
+    <t>Less 20% SST withheld (20% of 104,348)</t>
+  </si>
+  <si>
+    <t>Amount transferred</t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -415,6 +421,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -906,7 +916,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>267282</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>2526</xdr:rowOff>
+      <xdr:rowOff>88251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1310,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1614,20 +1624,15 @@
         <v>13</v>
       </c>
       <c r="B41" s="38"/>
-      <c r="C41" s="46" t="s">
-        <v>24</v>
-      </c>
+      <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="2">
-        <v>747130</v>
-      </c>
       <c r="F41" s="15"/>
       <c r="G41" s="13"/>
       <c r="J41" s="2"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E42" s="9"/>
       <c r="G42" s="1">
         <v>800000</v>
@@ -1635,7 +1640,12 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E43" s="2">
+      <c r="B43" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48">
         <f>E37*4%</f>
         <v>31999.992000000002</v>
       </c>
@@ -1645,7 +1655,12 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E44" s="2">
+      <c r="B44" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48">
         <f>E36*20%</f>
         <v>20869.560000000001</v>
       </c>
@@ -1657,7 +1672,12 @@
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E45" s="2">
+      <c r="B45" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48">
         <f>E37-E43-E44</f>
         <v>747130.24800000002</v>
       </c>
@@ -1667,7 +1687,10 @@
       <c r="L46" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A19:B19"/>
@@ -1687,9 +1710,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="7" man="1"/>
-  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>